--- a/koppelingProductenEnElementen.xlsx
+++ b/koppelingProductenEnElementen.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cborkent\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cborkent\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Producten" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="465">
   <si>
     <t>AFS</t>
   </si>
@@ -1419,6 +1419,9 @@
   </si>
   <si>
     <t>_ElemBreadcrumb</t>
+  </si>
+  <si>
+    <t>sdfsafdfdsdfsafdsa</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1786,7 @@
   <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,6 +2034,9 @@
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">

--- a/koppelingProductenEnElementen.xlsx
+++ b/koppelingProductenEnElementen.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cborkent\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\TestGitTraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
   </bookViews>
   <sheets>
     <sheet name="Producten" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="466">
   <si>
     <t>AFS</t>
   </si>
@@ -1421,14 +1421,17 @@
     <t>_ElemBreadcrumb</t>
   </si>
   <si>
-    <t>sdfsafdfdsdfsafdsa</t>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1438,6 +1441,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1465,10 +1475,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1786,2003 +1797,2007 @@
   <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="3" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="3" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="3" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="3" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="3" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="3" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="3" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="3" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="3" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="3" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="3" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="3" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="3" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="3" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="3" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="3" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="3" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="3" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="3" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="3" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="3" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="3" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="3" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="3" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="3" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="3" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="3" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="3" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="3" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="3" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="3" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="3" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="3" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="3" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="3" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="3" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="3" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="3" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="3" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="3" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="3" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="3" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="3" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="3" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="3" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="3" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="3" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="3" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="3" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="3" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="3" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="3" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="3" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="3" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="3" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E113" s="3" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E114" s="3" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" s="3" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E118" s="3" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" s="3" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E120" s="3" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E121" s="3" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E122" s="3" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" s="3" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" s="3" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E125" s="3" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E126" s="3" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" s="3" t="s">
         <v>434</v>
       </c>
     </row>

--- a/koppelingProductenEnElementen.xlsx
+++ b/koppelingProductenEnElementen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Producten" sheetId="1" r:id="rId1"/>
+    <sheet name="Query" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Producten!$A$1:$E$127</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="476">
   <si>
     <t>AFS</t>
   </si>
@@ -812,18 +813,12 @@
     <t>Sales portfolio &gt; Begeleiding</t>
   </si>
   <si>
-    <t>Bezoek registreren</t>
-  </si>
-  <si>
     <t>Ultimo &gt; Reservation &gt; Register visit</t>
   </si>
   <si>
     <t>Ultimo &gt; Building &gt; Property &gt; CAD</t>
   </si>
   <si>
-    <t>Conditiemetingen</t>
-  </si>
-  <si>
     <t>Generic elements &gt; Condition measurement</t>
   </si>
   <si>
@@ -845,15 +840,9 @@
     <t>Technical &gt; User interface &gt; Dashboards</t>
   </si>
   <si>
-    <t>Facturatie</t>
-  </si>
-  <si>
     <t>Generic elements &gt; Invoices</t>
   </si>
   <si>
-    <t>Documentatie</t>
-  </si>
-  <si>
     <t>Ultimo &gt; Master data &gt; Documentation &gt; Documentation</t>
   </si>
   <si>
@@ -881,9 +870,6 @@
     <t>Ultimo &gt; Fleet</t>
   </si>
   <si>
-    <t>Gebouw</t>
-  </si>
-  <si>
     <t>Ultimo &gt; Building</t>
   </si>
   <si>
@@ -893,9 +879,6 @@
     <t>Ultimo &gt; General &gt; Ultimo Go+</t>
   </si>
   <si>
-    <t>HSE-incidenten</t>
-  </si>
-  <si>
     <t>Ultimo &gt; HSE &gt; HSE incidents</t>
   </si>
   <si>
@@ -905,15 +888,9 @@
     <t>Ultimo &gt; Infra</t>
   </si>
   <si>
-    <t>Indienststelling</t>
-  </si>
-  <si>
     <t>Ultimo &gt; HSE &gt; Commissioning</t>
   </si>
   <si>
-    <t>Inkoop</t>
-  </si>
-  <si>
     <t>Ultimo &gt; Purchase</t>
   </si>
   <si>
@@ -923,9 +900,6 @@
     <t>Technical &gt; Installation</t>
   </si>
   <si>
-    <t>Importeren nulmeting 2iNSPECT</t>
-  </si>
-  <si>
     <t>Ultimo &gt; Infra &gt; Objects &gt; Import benchmark 2iNSPECT</t>
   </si>
   <si>
@@ -935,9 +909,6 @@
     <t>Interfaces &gt; Active Directory (LDAP)</t>
   </si>
   <si>
-    <t>Import AOC-codes</t>
-  </si>
-  <si>
     <t>Ultimo &gt; MT &gt; Master data &gt; Import AOC codes</t>
   </si>
   <si>
@@ -977,9 +948,6 @@
     <t>Ultimo &gt; Fleet &gt; Transics</t>
   </si>
   <si>
-    <t>Testapparatuur</t>
-  </si>
-  <si>
     <t>Interfaces &gt; Test equipment</t>
   </si>
   <si>
@@ -1004,9 +972,6 @@
     <t>Ultimo &gt; General &gt; LTAP</t>
   </si>
   <si>
-    <t>Meerjarenplanning</t>
-  </si>
-  <si>
     <t>Ultimo &gt; Building &gt; Long-term maintenance plan</t>
   </si>
   <si>
@@ -1019,18 +984,12 @@
     <t>Ultimo &gt; MT</t>
   </si>
   <si>
-    <t>Bevoegdheden</t>
-  </si>
-  <si>
     <t>Ultimo &gt; MT &gt; Authorisations</t>
   </si>
   <si>
     <t>Ultimo &gt; General &gt; Multijobs</t>
   </si>
   <si>
-    <t>Opleidingen</t>
-  </si>
-  <si>
     <t>Ultimo &gt; General &gt; Trainings</t>
   </si>
   <si>
@@ -1046,36 +1005,21 @@
     <t>Common &gt; Webshop</t>
   </si>
   <si>
-    <t>Jobplanning</t>
-  </si>
-  <si>
     <t>Ultimo &gt; General &gt; Job schedule</t>
   </si>
   <si>
-    <t>Periodiek onderhoud</t>
-  </si>
-  <si>
     <t>Generic elements &gt; Periodical maintenance</t>
   </si>
   <si>
-    <t>Projecten</t>
-  </si>
-  <si>
     <t>Ultimo &gt; Projects</t>
   </si>
   <si>
     <t>Ultimo &gt; Reports</t>
   </si>
   <si>
-    <t>Recordautorisatie</t>
-  </si>
-  <si>
     <t>Ultimo Customization Tool &gt; Authorisation &gt; Record Authorization</t>
   </si>
   <si>
-    <t>Reservering</t>
-  </si>
-  <si>
     <t>Ultimo &gt; Reservation</t>
   </si>
   <si>
@@ -1085,48 +1029,30 @@
     <t>Sales portfolio &gt; Software derden</t>
   </si>
   <si>
-    <t>SLA-beheer</t>
-  </si>
-  <si>
     <t>Ultimo &gt; General &gt; SLA management</t>
   </si>
   <si>
     <t>Ultimo &gt; Building &gt; Key management</t>
   </si>
   <si>
-    <t>Servicedesk</t>
-  </si>
-  <si>
     <t>Ultimo &gt; Service desk</t>
   </si>
   <si>
     <t>Ultimo &gt; Master data</t>
   </si>
   <si>
-    <t>Self Service</t>
-  </si>
-  <si>
     <t>Self service</t>
   </si>
   <si>
     <t>Ultimo &gt; Fleet &gt; Refuel registration</t>
   </si>
   <si>
-    <t>Ultimo business integration</t>
-  </si>
-  <si>
     <t>Interfaces &gt; Ultimo business integration packs (UBI)</t>
   </si>
   <si>
-    <t>Full text search</t>
-  </si>
-  <si>
     <t>Ultimo &gt; General &gt; Full Text Search</t>
   </si>
   <si>
-    <t>Uitgiftebeheer</t>
-  </si>
-  <si>
     <t>Generic elements &gt; Issue management</t>
   </si>
   <si>
@@ -1139,33 +1065,18 @@
     <t>Ultimo &gt; General &gt; Time accounting</t>
   </si>
   <si>
-    <t>Vastgoed</t>
-  </si>
-  <si>
     <t>Ultimo &gt; Building &gt; Property</t>
   </si>
   <si>
-    <t>Verhuur</t>
-  </si>
-  <si>
     <t>Ultimo &gt; Building &gt; Lettings</t>
   </si>
   <si>
-    <t>Verhuizen</t>
-  </si>
-  <si>
     <t>Ultimo &gt; Building &gt; Move</t>
   </si>
   <si>
-    <t>Vervanging</t>
-  </si>
-  <si>
     <t>Generic elements &gt; Replacement</t>
   </si>
   <si>
-    <t>Voorraadbeheermethodes</t>
-  </si>
-  <si>
     <t>Ultimo &gt; Warehouse &gt; Stock management method</t>
   </si>
   <si>
@@ -1175,9 +1086,6 @@
     <t>Ultimo Customization Tool &gt; Workflows &gt; Workflow designer</t>
   </si>
   <si>
-    <t>Werkorderbeheer (excl. PO)</t>
-  </si>
-  <si>
     <t>Generic elements &gt; Activities (non PM)</t>
   </si>
   <si>
@@ -1421,10 +1329,133 @@
     <t>_ElemBreadcrumb</t>
   </si>
   <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>sdf</t>
+    <t>Depreciations</t>
+  </si>
+  <si>
+    <t>Register visit</t>
+  </si>
+  <si>
+    <t>Condition measurement</t>
+  </si>
+  <si>
+    <t>Invoices</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>HSE incidents</t>
+  </si>
+  <si>
+    <t>Commissioning</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Import benchmark 2iNSPECT</t>
+  </si>
+  <si>
+    <t>Import AOC codes</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Test equipment</t>
+  </si>
+  <si>
+    <t>Knowledge base</t>
+  </si>
+  <si>
+    <t>Cost registration</t>
+  </si>
+  <si>
+    <t>Long-term maintenance plan</t>
+  </si>
+  <si>
+    <t>Change management</t>
+  </si>
+  <si>
+    <t>Authorisations</t>
+  </si>
+  <si>
+    <t>Multijobs</t>
+  </si>
+  <si>
+    <t>Trainings</t>
+  </si>
+  <si>
+    <t>Job schedule</t>
+  </si>
+  <si>
+    <t>Periodical maintenance</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Record Authorization</t>
+  </si>
+  <si>
+    <t>Reservation</t>
+  </si>
+  <si>
+    <t>SLA management</t>
+  </si>
+  <si>
+    <t>Key management</t>
+  </si>
+  <si>
+    <t>Service desk</t>
+  </si>
+  <si>
+    <t>Master data</t>
+  </si>
+  <si>
+    <t>Refuel registration</t>
+  </si>
+  <si>
+    <t>Ultimo business integration packs (UBI)</t>
+  </si>
+  <si>
+    <t>Full Text Search</t>
+  </si>
+  <si>
+    <t>Issue management</t>
+  </si>
+  <si>
+    <t>Time accounting</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Lettings</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Replacement</t>
+  </si>
+  <si>
+    <t>Stock management method</t>
+  </si>
+  <si>
+    <t>Activities (non PM)</t>
+  </si>
+  <si>
+    <t>Shift handover</t>
+  </si>
+  <si>
+    <t>Work permits</t>
   </si>
 </sst>
 </file>
@@ -1796,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,13 +1849,13 @@
         <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1835,13 +1866,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>433</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1858,7 +1889,7 @@
         <v>256</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1875,7 +1906,7 @@
         <v>258</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1892,7 +1923,7 @@
         <v>260</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1903,13 +1934,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1923,10 +1954,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1937,13 +1968,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>264</v>
+        <v>435</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1954,13 +1985,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1971,13 +2002,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,13 +2019,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2005,13 +2036,13 @@
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>272</v>
+        <v>436</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2022,13 +2053,13 @@
         <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>465</v>
+        <v>267</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2038,8 +2069,14 @@
       <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="C14" s="3" t="s">
+        <v>444</v>
+      </c>
       <c r="D14" s="3" t="s">
-        <v>464</v>
+        <v>444</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2049,8 +2086,14 @@
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="C15" s="3" t="s">
+        <v>444</v>
+      </c>
       <c r="D15" s="3" t="s">
-        <v>464</v>
+        <v>444</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2061,13 +2104,13 @@
         <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>274</v>
+        <v>437</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2078,13 +2121,13 @@
         <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2095,13 +2138,13 @@
         <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2112,13 +2155,13 @@
         <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2129,13 +2172,13 @@
         <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2145,6 +2188,15 @@
       <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="C21" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -2154,13 +2206,13 @@
         <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>284</v>
+        <v>438</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2171,13 +2223,13 @@
         <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2187,6 +2239,15 @@
       <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="C24" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -2196,13 +2257,13 @@
         <v>47</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>288</v>
+        <v>439</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2213,13 +2274,13 @@
         <v>49</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2230,13 +2291,13 @@
         <v>51</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>292</v>
+        <v>440</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2247,13 +2308,13 @@
         <v>53</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>294</v>
+        <v>441</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2264,13 +2325,13 @@
         <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2281,13 +2342,13 @@
         <v>57</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>298</v>
+        <v>442</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2298,13 +2359,13 @@
         <v>59</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2315,13 +2376,13 @@
         <v>61</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>302</v>
+        <v>443</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2332,13 +2393,13 @@
         <v>63</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2355,7 +2416,7 @@
         <v>258</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2366,13 +2427,13 @@
         <v>67</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2382,6 +2443,15 @@
       <c r="B36" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="C36" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -2390,6 +2460,15 @@
       <c r="B37" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="C37" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -2399,13 +2478,13 @@
         <v>73</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2416,13 +2495,13 @@
         <v>75</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2433,13 +2512,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2449,6 +2528,15 @@
       <c r="B41" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="C41" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -2458,13 +2546,13 @@
         <v>81</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2475,13 +2563,13 @@
         <v>83</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2492,13 +2580,13 @@
         <v>85</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2509,13 +2597,13 @@
         <v>87</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2526,13 +2614,13 @@
         <v>89</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2542,6 +2630,15 @@
       <c r="B47" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="C47" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -2551,13 +2648,13 @@
         <v>93</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2568,10 +2665,13 @@
         <v>95</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>313</v>
+        <v>303</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2581,6 +2681,15 @@
       <c r="B50" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="C50" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -2590,13 +2699,13 @@
         <v>99</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2607,13 +2716,13 @@
         <v>101</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2624,13 +2733,13 @@
         <v>103</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2640,6 +2749,15 @@
       <c r="B54" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="C54" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -2648,6 +2766,15 @@
       <c r="B55" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="C55" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
@@ -2656,6 +2783,15 @@
       <c r="B56" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="C56" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
@@ -2664,6 +2800,15 @@
       <c r="B57" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="C57" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
@@ -2673,13 +2818,13 @@
         <v>113</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2690,13 +2835,13 @@
         <v>115</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>316</v>
+        <v>445</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2706,6 +2851,15 @@
       <c r="B60" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="C60" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -2714,6 +2868,15 @@
       <c r="B61" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="C61" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
@@ -2723,13 +2886,13 @@
         <v>121</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2739,6 +2902,15 @@
       <c r="B63" s="3" t="s">
         <v>123</v>
       </c>
+      <c r="C63" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -2748,13 +2920,13 @@
         <v>125</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2765,13 +2937,13 @@
         <v>127</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2782,13 +2954,13 @@
         <v>129</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>129</v>
+        <v>446</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2799,13 +2971,13 @@
         <v>131</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>131</v>
+        <v>447</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2816,13 +2988,13 @@
         <v>133</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2836,10 +3008,10 @@
         <v>134</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2850,13 +3022,13 @@
         <v>137</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>325</v>
+        <v>448</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2867,13 +3039,13 @@
         <v>139</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>139</v>
+        <v>449</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2884,13 +3056,13 @@
         <v>141</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2901,13 +3073,13 @@
         <v>143</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2918,13 +3090,13 @@
         <v>145</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>145</v>
+        <v>451</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2941,7 +3113,7 @@
         <v>258</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2958,7 +3130,7 @@
         <v>260</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2975,7 +3147,7 @@
         <v>260</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2986,13 +3158,13 @@
         <v>153</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3003,13 +3175,13 @@
         <v>155</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>333</v>
+        <v>452</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3026,7 +3198,7 @@
         <v>260</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3037,13 +3209,13 @@
         <v>159</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3054,13 +3226,13 @@
         <v>161</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>333</v>
+        <v>452</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3071,13 +3243,13 @@
         <v>163</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3088,13 +3260,13 @@
         <v>165</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>339</v>
+        <v>453</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3111,7 +3283,7 @@
         <v>260</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3122,13 +3294,13 @@
         <v>169</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>341</v>
+        <v>454</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3139,13 +3311,13 @@
         <v>171</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>343</v>
+        <v>455</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3156,13 +3328,13 @@
         <v>173</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>173</v>
+        <v>456</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3173,13 +3345,13 @@
         <v>175</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>346</v>
+        <v>457</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3190,13 +3362,13 @@
         <v>177</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>348</v>
+        <v>458</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3213,7 +3385,7 @@
         <v>260</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3224,13 +3396,13 @@
         <v>181</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3241,13 +3413,13 @@
         <v>183</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3257,6 +3429,15 @@
       <c r="B94" s="3" t="s">
         <v>185</v>
       </c>
+      <c r="C94" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
@@ -3266,13 +3447,13 @@
         <v>187</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>352</v>
+        <v>459</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3283,13 +3464,13 @@
         <v>189</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>189</v>
+        <v>460</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3300,13 +3481,13 @@
         <v>191</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>355</v>
+        <v>461</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3317,13 +3498,13 @@
         <v>193</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>193</v>
+        <v>462</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3334,13 +3515,13 @@
         <v>195</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3351,13 +3532,13 @@
         <v>197</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>197</v>
+        <v>463</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3368,13 +3549,13 @@
         <v>199</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>361</v>
+        <v>464</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3385,13 +3566,13 @@
         <v>201</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>361</v>
+        <v>464</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3402,13 +3583,13 @@
         <v>203</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>361</v>
+        <v>464</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3419,13 +3600,13 @@
         <v>205</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>361</v>
+        <v>464</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3436,13 +3617,13 @@
         <v>207</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>361</v>
+        <v>464</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3453,13 +3634,13 @@
         <v>209</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>361</v>
+        <v>464</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3470,13 +3651,13 @@
         <v>211</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>361</v>
+        <v>464</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3487,13 +3668,13 @@
         <v>213</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>361</v>
+        <v>464</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3504,13 +3685,13 @@
         <v>215</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>361</v>
+        <v>464</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3521,13 +3702,13 @@
         <v>217</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>361</v>
+        <v>464</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3544,7 +3725,7 @@
         <v>219</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3555,13 +3736,13 @@
         <v>221</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>363</v>
+        <v>465</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3578,7 +3759,7 @@
         <v>260</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3589,13 +3770,13 @@
         <v>225</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>365</v>
+        <v>466</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3605,6 +3786,15 @@
       <c r="B115" s="3" t="s">
         <v>227</v>
       </c>
+      <c r="C115" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
@@ -3613,6 +3803,15 @@
       <c r="B116" s="3" t="s">
         <v>229</v>
       </c>
+      <c r="C116" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
@@ -3622,13 +3821,13 @@
         <v>231</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3639,13 +3838,13 @@
         <v>233</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>233</v>
+        <v>467</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3656,13 +3855,13 @@
         <v>235</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>370</v>
+        <v>468</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3673,13 +3872,13 @@
         <v>237</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>372</v>
+        <v>469</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3690,13 +3889,13 @@
         <v>239</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>374</v>
+        <v>470</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3707,13 +3906,13 @@
         <v>241</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>376</v>
+        <v>471</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3724,13 +3923,13 @@
         <v>243</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>378</v>
+        <v>472</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3741,13 +3940,13 @@
         <v>245</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3758,13 +3957,13 @@
         <v>247</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>382</v>
+        <v>473</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3775,13 +3974,13 @@
         <v>249</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>249</v>
+        <v>474</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3792,13 +3991,13 @@
         <v>251</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>251</v>
+        <v>475</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3806,4 +4005,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>